--- a/NAV Log Calculator - Flight Planner - E6B-like v1.8.1.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like v1.8.1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{58EA6F4E-E47A-4D64-A89B-778962AF177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5AC386-ADEB-457E-8726-E359AA2DA04A}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{58EA6F4E-E47A-4D64-A89B-778962AF177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA1DD78-3992-46C5-AFD0-3304FDE643EC}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="3360" windowWidth="29040" windowHeight="15720" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="35880" yWindow="3360" windowWidth="29040" windowHeight="15720" tabRatio="818" activeTab="4" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
     <sheet name="Nav Log (not foldable) - Empty" sheetId="1" r:id="rId2"/>
     <sheet name="Nav Log (not foldable) - Sample" sheetId="10" r:id="rId3"/>
-    <sheet name="Nav Log (Foldable)" sheetId="4" r:id="rId4"/>
+    <sheet name="Nav Log (Foldable) - Empty" sheetId="4" r:id="rId4"/>
     <sheet name="Nav Log (Foldable) - Sample Fil" sheetId="12" r:id="rId5"/>
     <sheet name="Nav Log (Foldable) - filled" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="Cross Wind Calculator v2" sheetId="5" r:id="rId7"/>
@@ -29,20 +29,20 @@
   </externalReferences>
   <definedNames>
     <definedName name="Departure_Time" localSheetId="7">'[1]Nav Log (not foldable)'!$B$1</definedName>
-    <definedName name="Departure_Time" localSheetId="3">'Nav Log (Foldable)'!$D$1</definedName>
+    <definedName name="Departure_Time" localSheetId="3">'Nav Log (Foldable) - Empty'!$D$1</definedName>
     <definedName name="Departure_Time" localSheetId="5">'Nav Log (Foldable) - filled'!$D$1</definedName>
     <definedName name="Departure_Time" localSheetId="4">'Nav Log (Foldable) - Sample Fil'!$D$1</definedName>
     <definedName name="Departure_Time" localSheetId="2">'Nav Log (not foldable) - Sample'!$B$1</definedName>
     <definedName name="Departure_Time">'Nav Log (not foldable) - Empty'!$B$1</definedName>
     <definedName name="DEV">'Cross Wind Calculator v2'!$D$8</definedName>
     <definedName name="FuelOnBoard" localSheetId="7">'[1]Nav Log (not foldable)'!$H$1</definedName>
-    <definedName name="FuelOnBoard" localSheetId="3">'Nav Log (Foldable)'!$J$1</definedName>
+    <definedName name="FuelOnBoard" localSheetId="3">'Nav Log (Foldable) - Empty'!$J$1</definedName>
     <definedName name="FuelOnBoard" localSheetId="5">'Nav Log (Foldable) - filled'!$J$1</definedName>
     <definedName name="FuelOnBoard" localSheetId="4">'Nav Log (Foldable) - Sample Fil'!$J$1</definedName>
     <definedName name="FuelOnBoard" localSheetId="2">'Nav Log (not foldable) - Sample'!$H$1</definedName>
     <definedName name="FuelOnBoard">'Nav Log (not foldable) - Empty'!$H$1</definedName>
     <definedName name="GalsPerHour" localSheetId="7">'[1]Nav Log (not foldable)'!$H$3</definedName>
-    <definedName name="GalsPerHour" localSheetId="3">'Nav Log (Foldable)'!$J$3</definedName>
+    <definedName name="GalsPerHour" localSheetId="3">'Nav Log (Foldable) - Empty'!$J$3</definedName>
     <definedName name="GalsPerHour" localSheetId="5">'Nav Log (Foldable) - filled'!$J$3</definedName>
     <definedName name="GalsPerHour" localSheetId="4">'Nav Log (Foldable) - Sample Fil'!$J$3</definedName>
     <definedName name="GalsPerHour" localSheetId="2">'Nav Log (not foldable) - Sample'!$H$3</definedName>
@@ -1897,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2141,104 +2141,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2347,30 +2249,103 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2406,6 +2381,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2433,6 +2412,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2522,7 +2522,6 @@
     <xf numFmtId="0" fontId="38" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13704,10 +13703,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -14305,10 +14300,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA0329-641C-488B-BD77-AD405A32D6D3}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14323,132 +14321,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="158"/>
-      <c r="E1" s="144" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="E1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="148"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="118"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="151" t="s">
+      <c r="N1" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="137" t="s">
+      <c r="O1" s="122"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="107" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="149"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="119"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="138"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="108"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="148"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="118"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="141" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="139"/>
-      <c r="S3" s="137" t="s">
+      <c r="R3" s="109"/>
+      <c r="S3" s="107" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="149"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="143"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="119"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="113"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="125"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
     </row>
     <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="56" t="s">
         <v>2</v>
       </c>
@@ -14478,7 +14476,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="120"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="60" t="s">
         <v>0</v>
       </c>
@@ -14536,33 +14534,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="111" t="str">
+      <c r="A9" s="136"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="133" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="111" t="str">
+      <c r="I9" s="133" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="111" t="str">
+      <c r="J9" s="134"/>
+      <c r="K9" s="133" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="112"/>
+      <c r="L9" s="134"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="111" t="str">
+      <c r="N9" s="133" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="112"/>
+      <c r="O9" s="134"/>
       <c r="P9" s="40" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -14585,21 +14583,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="51"/>
@@ -14607,33 +14605,33 @@
       <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="109"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="116" t="str">
+      <c r="A11" s="136"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="131" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="116" t="str">
+      <c r="I11" s="131" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116" t="str">
+      <c r="J11" s="132"/>
+      <c r="K11" s="131" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="115"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="116" t="str">
+      <c r="N11" s="131" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="115"/>
+      <c r="O11" s="132"/>
       <c r="P11" s="43" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -14656,21 +14654,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="115"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="115"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="42"/>
@@ -14678,33 +14676,33 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111" t="str">
+      <c r="A13" s="136"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="133" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="111" t="str">
+      <c r="I13" s="133" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="111" t="str">
+      <c r="J13" s="134"/>
+      <c r="K13" s="133" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="112"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="111" t="str">
+      <c r="N13" s="133" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="112"/>
+      <c r="O13" s="134"/>
       <c r="P13" s="40" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -14727,21 +14725,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="51"/>
@@ -14749,33 +14747,33 @@
       <c r="T14" s="50"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="116" t="str">
+      <c r="A15" s="136"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="131" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="116" t="str">
+      <c r="I15" s="131" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116" t="str">
+      <c r="J15" s="132"/>
+      <c r="K15" s="131" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="115"/>
+      <c r="L15" s="132"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="116" t="str">
+      <c r="N15" s="131" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="115"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="43" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -14798,21 +14796,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="42"/>
@@ -14820,33 +14818,33 @@
       <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="109"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="111" t="str">
+      <c r="A17" s="136"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="133" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="111" t="str">
+      <c r="I17" s="133" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="111" t="str">
+      <c r="J17" s="134"/>
+      <c r="K17" s="133" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="112"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="111" t="str">
+      <c r="N17" s="133" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="112"/>
+      <c r="O17" s="134"/>
       <c r="P17" s="40" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -14869,21 +14867,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="51"/>
@@ -14891,33 +14889,33 @@
       <c r="T18" s="50"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="109"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="116" t="str">
+      <c r="A19" s="136"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="131" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="116" t="str">
+      <c r="I19" s="131" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116" t="str">
+      <c r="J19" s="132"/>
+      <c r="K19" s="131" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="115"/>
+      <c r="L19" s="132"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="116" t="str">
+      <c r="N19" s="131" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="115"/>
+      <c r="O19" s="132"/>
       <c r="P19" s="43" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -14940,21 +14938,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="115"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="42"/>
@@ -14962,33 +14960,33 @@
       <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="109"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="111" t="str">
+      <c r="A21" s="136"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="133" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="111" t="str">
+      <c r="I21" s="133" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="112"/>
-      <c r="K21" s="111" t="str">
+      <c r="J21" s="134"/>
+      <c r="K21" s="133" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="112"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="133" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="112"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="40" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -15011,21 +15009,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="51"/>
@@ -15033,33 +15031,33 @@
       <c r="T22" s="50"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="109"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="116" t="str">
+      <c r="A23" s="136"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="131" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="116" t="str">
+      <c r="I23" s="131" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="115"/>
-      <c r="K23" s="111" t="str">
+      <c r="J23" s="132"/>
+      <c r="K23" s="133" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="132"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="133" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="115"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="43" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -15082,21 +15080,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="108"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="115"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="115"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="132"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
@@ -15104,33 +15102,33 @@
       <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="111" t="str">
+      <c r="A25" s="160"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="133" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="111" t="str">
+      <c r="I25" s="133" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="112"/>
-      <c r="K25" s="111" t="str">
+      <c r="J25" s="134"/>
+      <c r="K25" s="133" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="112"/>
+      <c r="L25" s="134"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="133" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="134"/>
       <c r="P25" s="40" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -15156,20 +15154,20 @@
       <c r="A26" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="114"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="148"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="114"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="148"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="53"/>
@@ -15177,112 +15175,112 @@
       <c r="T26" s="50"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="O27" s="117">
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="O27" s="146">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="98">
+      <c r="Q27" s="150">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="100">
+      <c r="R27" s="152">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="98">
+      <c r="S27" s="150">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="105"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="O28" s="118"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="99"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
+      <c r="O28" s="147"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="151"/>
     </row>
     <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="130"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="133"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="133"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="103"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
@@ -15299,7 +15297,134 @@
       <c r="L33" s="96"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="A29:L32"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P3:P4"/>
@@ -15324,132 +15449,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.05" right="0.05" top="0.15" bottom="0.15" header="0" footer="0"/>
@@ -15460,6 +15459,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F83738-1B73-48D5-879D-B8EAF518E90A}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -15478,132 +15480,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="158"/>
-      <c r="E1" s="144" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="E1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="148"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="118"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="151" t="s">
+      <c r="N1" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="137" t="s">
+      <c r="O1" s="122"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="107" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="146"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="149"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="119"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="138"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="108"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="148"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="118"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="141" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="139"/>
-      <c r="S3" s="137" t="s">
+      <c r="R3" s="109"/>
+      <c r="S3" s="107" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="149"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="143"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="119"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="113"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="125"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
     </row>
     <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="56" t="s">
         <v>2</v>
       </c>
@@ -15633,7 +15635,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="135" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -15693,49 +15695,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112">
+      <c r="A9" s="136"/>
+      <c r="B9" s="134">
         <v>90</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="134">
         <v>3500</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="134">
         <v>215</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="134">
         <v>17</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="134">
         <v>-10</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="134">
         <v>95</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="133">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="133">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="134">
         <v>13</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="133">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="112">
+      <c r="L9" s="134">
         <v>0</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="111">
+      <c r="N9" s="133">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="112">
+      <c r="O9" s="134">
         <v>7</v>
       </c>
       <c r="P9" s="40">
@@ -15760,23 +15762,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="51"/>
@@ -15784,49 +15786,49 @@
       <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="109"/>
-      <c r="B11" s="115">
+      <c r="A11" s="136"/>
+      <c r="B11" s="132">
         <v>90</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="132">
         <v>3500</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="132">
         <v>215</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="132">
         <v>17</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="132">
         <v>-10</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="132">
         <v>95</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="131">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="116">
+      <c r="I11" s="131">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="115">
+      <c r="J11" s="132">
         <v>13</v>
       </c>
-      <c r="K11" s="116">
+      <c r="K11" s="131">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="115">
+      <c r="L11" s="132">
         <v>0</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="116">
+      <c r="N11" s="131">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="115">
+      <c r="O11" s="132">
         <v>8</v>
       </c>
       <c r="P11" s="43">
@@ -15851,23 +15853,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="115"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="115"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="42"/>
@@ -15875,49 +15877,49 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112">
+      <c r="A13" s="136"/>
+      <c r="B13" s="134">
         <v>131</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="134">
         <v>3500</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="134">
         <v>215</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="134">
         <v>17</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="134">
         <v>-10</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="134">
         <v>95</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="133">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="133">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="112">
+      <c r="J13" s="134">
         <v>13</v>
       </c>
-      <c r="K13" s="111">
+      <c r="K13" s="133">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="134">
         <v>2</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="111">
+      <c r="N13" s="133">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="134">
         <v>11</v>
       </c>
       <c r="P13" s="40">
@@ -15942,23 +15944,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="51"/>
@@ -15966,49 +15968,49 @@
       <c r="T14" s="50"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110">
+      <c r="A15" s="136"/>
+      <c r="B15" s="145">
         <v>131</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="145">
         <v>3500</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="145">
         <v>215</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="145">
         <v>17</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="145">
         <v>-10</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="145">
         <v>95</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="131">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="131">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="132">
         <v>13</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="131">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="132">
         <v>2</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="116">
+      <c r="N15" s="131">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="132">
         <v>8</v>
       </c>
       <c r="P15" s="43">
@@ -16033,23 +16035,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="42"/>
@@ -16057,49 +16059,49 @@
       <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="109"/>
-      <c r="B17" s="112">
+      <c r="A17" s="136"/>
+      <c r="B17" s="134">
         <v>131</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="134">
         <v>3500</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="134">
         <v>215</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="134">
         <v>17</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="134">
         <v>-10</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="134">
         <v>95</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="133">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="133">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J17" s="134">
         <v>13</v>
       </c>
-      <c r="K17" s="111">
+      <c r="K17" s="133">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="112">
+      <c r="L17" s="134">
         <v>2</v>
       </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="111">
+      <c r="N17" s="133">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="134">
         <v>10</v>
       </c>
       <c r="P17" s="40">
@@ -16124,23 +16126,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="51"/>
@@ -16148,49 +16150,49 @@
       <c r="T18" s="50"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="109"/>
-      <c r="B19" s="110">
+      <c r="A19" s="136"/>
+      <c r="B19" s="145">
         <v>131</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="145">
         <v>3500</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="145">
         <v>215</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="145">
         <v>17</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="145">
         <v>-10</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="145">
         <v>95</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="131">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="131">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="115">
+      <c r="J19" s="132">
         <v>13</v>
       </c>
-      <c r="K19" s="116">
+      <c r="K19" s="131">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="115">
+      <c r="L19" s="132">
         <v>2</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="116">
+      <c r="N19" s="131">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="115">
+      <c r="O19" s="132">
         <v>11</v>
       </c>
       <c r="P19" s="43">
@@ -16215,23 +16217,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="115"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="115"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="42"/>
@@ -16239,33 +16241,33 @@
       <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="109"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="111" t="str">
+      <c r="A21" s="136"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="133" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="111" t="str">
+      <c r="I21" s="133" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="112"/>
-      <c r="K21" s="111" t="str">
+      <c r="J21" s="134"/>
+      <c r="K21" s="133" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="112"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="133" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="112"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="40" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -16288,21 +16290,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="51"/>
@@ -16310,33 +16312,33 @@
       <c r="T22" s="50"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="109"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="116" t="str">
+      <c r="A23" s="136"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="131" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="116" t="str">
+      <c r="I23" s="131" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="115"/>
-      <c r="K23" s="111" t="str">
+      <c r="J23" s="132"/>
+      <c r="K23" s="133" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="132"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="133" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="115"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="43" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -16359,21 +16361,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="108"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="115"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="115"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="132"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
@@ -16381,33 +16383,33 @@
       <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="111" t="str">
+      <c r="A25" s="160"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="133" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="111" t="str">
+      <c r="I25" s="133" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="112"/>
-      <c r="K25" s="111" t="str">
+      <c r="J25" s="134"/>
+      <c r="K25" s="133" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="112"/>
+      <c r="L25" s="134"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="133" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="134"/>
       <c r="P25" s="40" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -16433,20 +16435,20 @@
       <c r="A26" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="114"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="148"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="114"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="148"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="53"/>
@@ -16454,112 +16456,112 @@
       <c r="T26" s="50"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="O27" s="117">
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="O27" s="146">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="98">
+      <c r="Q27" s="150">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="100">
+      <c r="R27" s="152">
         <f>MAX(R9:R26)</f>
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="S27" s="98">
+      <c r="S27" s="150">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="105"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="O28" s="118"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="99"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
+      <c r="O28" s="147"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="151"/>
     </row>
     <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="130"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="133"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="133"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="103"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="1:12" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
@@ -16576,39 +16578,102 @@
       <c r="L33" s="96"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A29:L32"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="N17:N18"/>
@@ -16633,100 +16698,38 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L32"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.15" bottom="0.15" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16736,9 +16739,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -16757,121 +16763,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="176"/>
-      <c r="G1" s="179" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="G1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="180" t="s">
+      <c r="M1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="161" t="s">
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="184" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="162"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="185"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="183" t="s">
+      <c r="M3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="163" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="161" t="s">
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="184" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="162"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="185"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="25"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="125"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
     </row>
     <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="187"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -16934,7 +16940,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="120"/>
+      <c r="M8" s="135"/>
       <c r="N8" s="31" t="s">
         <v>8</v>
       </c>
@@ -16958,33 +16964,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="111" t="str">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="133" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v/>
       </c>
-      <c r="H9" s="111" t="str">
+      <c r="H9" s="133" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="111" t="str">
+      <c r="I9" s="134"/>
+      <c r="J9" s="133" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="112"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="111" t="str">
+      <c r="M9" s="136"/>
+      <c r="N9" s="133" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="112"/>
+      <c r="O9" s="134"/>
       <c r="P9" s="40" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v/>
@@ -17007,21 +17013,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="42"/>
@@ -17029,33 +17035,33 @@
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116" t="str">
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="131" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v/>
       </c>
-      <c r="H11" s="116" t="str">
+      <c r="H11" s="131" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116" t="str">
+      <c r="I11" s="132"/>
+      <c r="J11" s="131" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="115"/>
+      <c r="K11" s="132"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="116" t="str">
+      <c r="M11" s="136"/>
+      <c r="N11" s="131" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="115"/>
+      <c r="O11" s="132"/>
       <c r="P11" s="43" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v/>
@@ -17078,21 +17084,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="115"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="42"/>
@@ -17100,33 +17106,33 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="111" t="str">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="133" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v/>
       </c>
-      <c r="H13" s="111" t="str">
+      <c r="H13" s="133" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="111" t="str">
+      <c r="I13" s="134"/>
+      <c r="J13" s="133" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="112"/>
+      <c r="K13" s="134"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="111" t="str">
+      <c r="M13" s="136"/>
+      <c r="N13" s="133" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="112"/>
+      <c r="O13" s="134"/>
       <c r="P13" s="40" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v/>
@@ -17149,21 +17155,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="42"/>
@@ -17171,33 +17177,33 @@
       <c r="T14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="116" t="str">
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="131" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v/>
       </c>
-      <c r="H15" s="116" t="str">
+      <c r="H15" s="131" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116" t="str">
+      <c r="I15" s="132"/>
+      <c r="J15" s="131" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="115"/>
+      <c r="K15" s="132"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="116" t="str">
+      <c r="M15" s="136"/>
+      <c r="N15" s="131" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="115"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="43" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v/>
@@ -17220,21 +17226,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="115"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="42"/>
@@ -17242,33 +17248,33 @@
       <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="111" t="str">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="133" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v/>
       </c>
-      <c r="H17" s="111" t="str">
+      <c r="H17" s="133" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="111" t="str">
+      <c r="I17" s="134"/>
+      <c r="J17" s="133" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="112"/>
+      <c r="K17" s="134"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="111" t="str">
+      <c r="M17" s="136"/>
+      <c r="N17" s="133" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="112"/>
+      <c r="O17" s="134"/>
       <c r="P17" s="40" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v/>
@@ -17291,21 +17297,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="42"/>
@@ -17313,33 +17319,33 @@
       <c r="T18" s="41"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="116" t="str">
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="131" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v/>
       </c>
-      <c r="H19" s="116" t="str">
+      <c r="H19" s="131" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116" t="str">
+      <c r="I19" s="132"/>
+      <c r="J19" s="131" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="115"/>
+      <c r="K19" s="132"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="116" t="str">
+      <c r="M19" s="136"/>
+      <c r="N19" s="131" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="115"/>
+      <c r="O19" s="132"/>
       <c r="P19" s="43" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v/>
@@ -17362,21 +17368,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="115"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="115"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="42"/>
@@ -17384,33 +17390,33 @@
       <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111" t="str">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="133" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="111" t="str">
+      <c r="H21" s="133" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="111" t="str">
+      <c r="I21" s="134"/>
+      <c r="J21" s="133" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="112"/>
+      <c r="K21" s="134"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="111" t="str">
+      <c r="M21" s="136"/>
+      <c r="N21" s="133" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="112"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="40" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -17433,21 +17439,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="42"/>
@@ -17455,33 +17461,33 @@
       <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="116" t="str">
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="131" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="116" t="str">
+      <c r="H23" s="131" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116" t="str">
+      <c r="I23" s="132"/>
+      <c r="J23" s="131" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="132"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="116" t="str">
+      <c r="M23" s="136"/>
+      <c r="N23" s="131" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="115"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="43" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -17504,21 +17510,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="115"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="115"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="132"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
@@ -17526,33 +17532,33 @@
       <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="111" t="str">
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="111" t="str">
+      <c r="H25" s="133" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="111" t="str">
+      <c r="I25" s="134"/>
+      <c r="J25" s="133" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="112"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="111" t="str">
+      <c r="M25" s="160"/>
+      <c r="N25" s="133" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="134"/>
       <c r="P25" s="40" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -17575,23 +17581,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
       <c r="L26" s="28"/>
       <c r="M26" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="134"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="42"/>
@@ -17599,19 +17605,19 @@
       <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="29"/>
       <c r="M27" s="30" t="s">
         <v>67</v>
@@ -17634,22 +17640,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="166"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -17674,126 +17801,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17803,9 +17810,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63963AD7-5C5D-460B-A4CD-9E09DA635943}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O23" sqref="O23:O24"/>
     </sheetView>
   </sheetViews>
@@ -17824,133 +17834,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="175">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="167">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="G1" s="179" t="s">
+      <c r="E1" s="168"/>
+      <c r="G1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="165">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="171">
         <v>38</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="180" t="s">
+      <c r="M1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="182">
+      <c r="N1" s="175">
         <v>3500</v>
       </c>
-      <c r="O1" s="182"/>
-      <c r="P1" s="161" t="s">
+      <c r="O1" s="175"/>
+      <c r="P1" s="184" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="162"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="185"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="165">
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="171">
         <v>8</v>
       </c>
-      <c r="K3" s="165"/>
+      <c r="K3" s="171"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="183" t="s">
+      <c r="M3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="165">
+      <c r="N3" s="171">
         <v>215</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="163" t="s">
+      <c r="O3" s="171"/>
+      <c r="P3" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="165">
+      <c r="Q3" s="171">
         <v>17</v>
       </c>
-      <c r="R3" s="165"/>
-      <c r="S3" s="161" t="s">
+      <c r="R3" s="171"/>
+      <c r="S3" s="184" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="162"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="185"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="25"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="125"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
     </row>
     <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="187"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -18013,7 +18023,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="120" t="s">
+      <c r="M8" s="135" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="31" t="s">
@@ -18039,49 +18049,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="112">
+      <c r="A9" s="134">
         <v>90</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="134">
         <v>3500</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="134">
         <v>170</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="134">
         <v>17</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="134">
         <v>-10</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="134">
         <v>95</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="133">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="133">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="134">
         <v>13</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="133">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="134">
         <v>0</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="111">
+      <c r="M9" s="136"/>
+      <c r="N9" s="133">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="112">
+      <c r="O9" s="134">
         <v>7</v>
       </c>
       <c r="P9" s="40">
@@ -18106,23 +18116,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="42"/>
@@ -18130,49 +18140,49 @@
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115">
+      <c r="A11" s="132">
         <v>90</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="132">
         <v>3500</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="132">
         <v>215</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="132">
         <v>17</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="132">
         <v>-10</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="132">
         <v>95</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="131">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="131">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="132">
         <v>13</v>
       </c>
-      <c r="J11" s="116">
+      <c r="J11" s="131">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="132">
         <v>0</v>
       </c>
       <c r="L11" s="28"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="116">
+      <c r="M11" s="136"/>
+      <c r="N11" s="131">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="115">
+      <c r="O11" s="132">
         <v>8</v>
       </c>
       <c r="P11" s="43">
@@ -18197,23 +18207,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="115"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="42"/>
@@ -18221,49 +18231,49 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="112">
+      <c r="A13" s="134">
         <v>131</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="134">
         <v>3500</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="134">
         <v>215</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="134">
         <v>17</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="134">
         <v>-10</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="134">
         <v>95</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="133">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="133">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="112">
+      <c r="I13" s="134">
         <v>13</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="133">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="134">
         <v>2</v>
       </c>
       <c r="L13" s="28"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="111">
+      <c r="M13" s="136"/>
+      <c r="N13" s="133">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="134">
         <v>11</v>
       </c>
       <c r="P13" s="40">
@@ -18288,23 +18298,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="42"/>
@@ -18312,49 +18322,49 @@
       <c r="T14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110">
+      <c r="A15" s="145">
         <v>131</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="145">
         <v>3500</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="145">
         <v>215</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="145">
         <v>17</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="145">
         <v>-10</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="145">
         <v>95</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="131">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="131">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="132">
         <v>13</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="131">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="132">
         <v>2</v>
       </c>
       <c r="L15" s="28"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="116">
+      <c r="M15" s="136"/>
+      <c r="N15" s="131">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="132">
         <v>8</v>
       </c>
       <c r="P15" s="43">
@@ -18379,23 +18389,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="115"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="42"/>
@@ -18403,49 +18413,49 @@
       <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="112">
+      <c r="A17" s="134">
         <v>131</v>
       </c>
-      <c r="B17" s="112">
+      <c r="B17" s="134">
         <v>3500</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="134">
         <v>215</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="134">
         <v>17</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="134">
         <v>-10</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="134">
         <v>95</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="133">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="133">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="134">
         <v>13</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="133">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="112">
+      <c r="K17" s="134">
         <v>2</v>
       </c>
       <c r="L17" s="28"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="111">
+      <c r="M17" s="136"/>
+      <c r="N17" s="133">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="134">
         <v>10</v>
       </c>
       <c r="P17" s="40">
@@ -18470,23 +18480,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="42"/>
@@ -18494,49 +18504,49 @@
       <c r="T18" s="41"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="110">
+      <c r="A19" s="145">
         <v>131</v>
       </c>
-      <c r="B19" s="110">
+      <c r="B19" s="145">
         <v>3500</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="145">
         <v>215</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="145">
         <v>17</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="145">
         <v>-10</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="145">
         <v>95</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="131">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="131">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="132">
         <v>13</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="131">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="115">
+      <c r="K19" s="132">
         <v>2</v>
       </c>
       <c r="L19" s="28"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="116">
+      <c r="M19" s="136"/>
+      <c r="N19" s="131">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="115">
+      <c r="O19" s="132">
         <v>11</v>
       </c>
       <c r="P19" s="43">
@@ -18561,23 +18571,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="115"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="115"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="42"/>
@@ -18585,33 +18595,33 @@
       <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111" t="str">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="133" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="111" t="str">
+      <c r="H21" s="133" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="111" t="str">
+      <c r="I21" s="134"/>
+      <c r="J21" s="133" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="112"/>
+      <c r="K21" s="134"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="111" t="str">
+      <c r="M21" s="136"/>
+      <c r="N21" s="133" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="112"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="40" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -18634,21 +18644,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="42"/>
@@ -18656,33 +18666,33 @@
       <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="116" t="str">
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="131" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="116" t="str">
+      <c r="H23" s="131" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116" t="str">
+      <c r="I23" s="132"/>
+      <c r="J23" s="131" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="132"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="116" t="str">
+      <c r="M23" s="136"/>
+      <c r="N23" s="131" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="115"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="43" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -18705,21 +18715,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="115"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="115"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="132"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
@@ -18727,33 +18737,33 @@
       <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="111" t="str">
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="111" t="str">
+      <c r="H25" s="133" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="111" t="str">
+      <c r="I25" s="134"/>
+      <c r="J25" s="133" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="112"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="111" t="str">
+      <c r="M25" s="160"/>
+      <c r="N25" s="133" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="134"/>
       <c r="P25" s="40" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -18776,23 +18786,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
       <c r="L26" s="28"/>
       <c r="M26" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="134"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="42"/>
@@ -18800,19 +18810,19 @@
       <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="29"/>
       <c r="M27" s="30" t="s">
         <v>67</v>
@@ -18835,52 +18845,116 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="166"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -18902,99 +18976,36 @@
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -19024,133 +19035,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="175">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="167">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="G1" s="179" t="s">
+      <c r="E1" s="168"/>
+      <c r="G1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="165">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="171">
         <v>38</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="23"/>
-      <c r="M1" s="180" t="s">
+      <c r="M1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="182">
+      <c r="N1" s="175">
         <v>3500</v>
       </c>
-      <c r="O1" s="182"/>
-      <c r="P1" s="161" t="s">
+      <c r="O1" s="175"/>
+      <c r="P1" s="184" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="162"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="185"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="165">
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="171">
         <v>8</v>
       </c>
-      <c r="K3" s="165"/>
+      <c r="K3" s="171"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="183" t="s">
+      <c r="M3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="165">
+      <c r="N3" s="171">
         <v>215</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="163" t="s">
+      <c r="O3" s="171"/>
+      <c r="P3" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="165">
+      <c r="Q3" s="171">
         <v>17</v>
       </c>
-      <c r="R3" s="165"/>
-      <c r="S3" s="161" t="s">
+      <c r="R3" s="171"/>
+      <c r="S3" s="184" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="162"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="185"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="25"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="123" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="125"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
     </row>
     <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="187"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -19213,7 +19224,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="120" t="s">
+      <c r="M8" s="135" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="31" t="s">
@@ -19239,49 +19250,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="112">
+      <c r="A9" s="134">
         <v>90</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="134">
         <v>3500</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="134">
         <v>170</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="134">
         <v>17</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="134">
         <v>-10</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="134">
         <v>95</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="133">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="133">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="134">
         <v>13</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="133">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="134">
         <v>0</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="111">
+      <c r="M9" s="136"/>
+      <c r="N9" s="133">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="112">
+      <c r="O9" s="134">
         <v>7</v>
       </c>
       <c r="P9" s="40">
@@ -19306,23 +19317,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="42"/>
@@ -19330,49 +19341,49 @@
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115">
+      <c r="A11" s="132">
         <v>90</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="132">
         <v>3500</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="132">
         <v>215</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="132">
         <v>17</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="132">
         <v>-10</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="132">
         <v>95</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="131">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="131">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="132">
         <v>13</v>
       </c>
-      <c r="J11" s="116">
+      <c r="J11" s="131">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="132">
         <v>0</v>
       </c>
       <c r="L11" s="28"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="116">
+      <c r="M11" s="136"/>
+      <c r="N11" s="131">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="115">
+      <c r="O11" s="132">
         <v>8</v>
       </c>
       <c r="P11" s="43">
@@ -19397,23 +19408,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="115"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="115"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="42"/>
@@ -19421,49 +19432,49 @@
       <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="112">
+      <c r="A13" s="134">
         <v>131</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="134">
         <v>3500</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="134">
         <v>215</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="134">
         <v>17</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="134">
         <v>-10</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="134">
         <v>95</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="133">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="133">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="112">
+      <c r="I13" s="134">
         <v>13</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="133">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="134">
         <v>2</v>
       </c>
       <c r="L13" s="28"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="111">
+      <c r="M13" s="136"/>
+      <c r="N13" s="133">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="134">
         <v>11</v>
       </c>
       <c r="P13" s="40">
@@ -19488,23 +19499,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="42"/>
@@ -19512,49 +19523,49 @@
       <c r="T14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110">
+      <c r="A15" s="145">
         <v>131</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="145">
         <v>3500</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="145">
         <v>215</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="145">
         <v>17</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="145">
         <v>-10</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="145">
         <v>95</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="131">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="131">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="132">
         <v>13</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="131">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="132">
         <v>2</v>
       </c>
       <c r="L15" s="28"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="116">
+      <c r="M15" s="136"/>
+      <c r="N15" s="131">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="132">
         <v>8</v>
       </c>
       <c r="P15" s="43">
@@ -19579,23 +19590,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="115"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="42"/>
@@ -19603,49 +19614,49 @@
       <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="112">
+      <c r="A17" s="134">
         <v>131</v>
       </c>
-      <c r="B17" s="112">
+      <c r="B17" s="134">
         <v>3500</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="134">
         <v>215</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="134">
         <v>17</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="134">
         <v>-10</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="134">
         <v>95</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="133">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="133">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="134">
         <v>13</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="133">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="112">
+      <c r="K17" s="134">
         <v>2</v>
       </c>
       <c r="L17" s="28"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="111">
+      <c r="M17" s="136"/>
+      <c r="N17" s="133">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="134">
         <v>10</v>
       </c>
       <c r="P17" s="40">
@@ -19670,23 +19681,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="42"/>
@@ -19694,49 +19705,49 @@
       <c r="T18" s="41"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="110">
+      <c r="A19" s="145">
         <v>131</v>
       </c>
-      <c r="B19" s="110">
+      <c r="B19" s="145">
         <v>3500</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="145">
         <v>215</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="145">
         <v>17</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="145">
         <v>-10</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="145">
         <v>95</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="131">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="131">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="132">
         <v>13</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="131">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="115">
+      <c r="K19" s="132">
         <v>2</v>
       </c>
       <c r="L19" s="28"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="116">
+      <c r="M19" s="136"/>
+      <c r="N19" s="131">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="115">
+      <c r="O19" s="132">
         <v>11</v>
       </c>
       <c r="P19" s="43">
@@ -19761,23 +19772,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="115"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="115"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="42"/>
@@ -19785,33 +19796,33 @@
       <c r="T20" s="41"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111" t="str">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="133" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="111" t="str">
+      <c r="H21" s="133" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="111" t="str">
+      <c r="I21" s="134"/>
+      <c r="J21" s="133" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="112"/>
+      <c r="K21" s="134"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="111" t="str">
+      <c r="M21" s="136"/>
+      <c r="N21" s="133" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="112"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="40" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -19834,21 +19845,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="42"/>
@@ -19856,33 +19867,33 @@
       <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="116" t="str">
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="131" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="116" t="str">
+      <c r="H23" s="131" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116" t="str">
+      <c r="I23" s="132"/>
+      <c r="J23" s="131" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="132"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="116" t="str">
+      <c r="M23" s="136"/>
+      <c r="N23" s="131" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="115"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="43" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -19905,21 +19916,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="115"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="115"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="132"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
@@ -19927,33 +19938,33 @@
       <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="111" t="str">
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="111" t="str">
+      <c r="H25" s="133" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="111" t="str">
+      <c r="I25" s="134"/>
+      <c r="J25" s="133" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="112"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="111" t="str">
+      <c r="M25" s="160"/>
+      <c r="N25" s="133" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="134"/>
       <c r="P25" s="40" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -19976,23 +19987,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
       <c r="L26" s="28"/>
       <c r="M26" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="134"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="42"/>
@@ -20000,19 +20011,19 @@
       <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="29"/>
       <c r="M27" s="30" t="s">
         <v>67</v>
@@ -20035,50 +20046,116 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="166"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F17:F18"/>
@@ -20103,99 +20180,33 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -20208,7 +20219,7 @@
   <dimension ref="B1:V57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20910,7 +20921,6 @@
       <c r="J57" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="L20:V31"/>
     <mergeCell ref="B2:J2"/>
@@ -20929,7 +20939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E724F9-E222-45A0-BDFC-6F3B6E498688}">
   <dimension ref="B1:V52"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -21516,68 +21526,26 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="63"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="217"/>
-      <c r="H46" s="217"/>
-      <c r="I46" s="217"/>
       <c r="J46" s="64"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="63"/>
-      <c r="C47" s="217"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="217"/>
-      <c r="H47" s="217"/>
-      <c r="I47" s="217"/>
       <c r="J47" s="64"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="63"/>
-      <c r="C48" s="217"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="217"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="217"/>
-      <c r="H48" s="217"/>
-      <c r="I48" s="217"/>
       <c r="J48" s="64"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="63"/>
-      <c r="C49" s="217"/>
-      <c r="D49" s="217"/>
-      <c r="E49" s="217"/>
-      <c r="F49" s="217"/>
-      <c r="G49" s="217"/>
-      <c r="H49" s="217"/>
-      <c r="I49" s="217"/>
       <c r="J49" s="64"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="63"/>
-      <c r="C50" s="217"/>
-      <c r="D50" s="217"/>
-      <c r="E50" s="217"/>
-      <c r="F50" s="217"/>
-      <c r="G50" s="217"/>
-      <c r="H50" s="217"/>
-      <c r="I50" s="217"/>
       <c r="J50" s="64"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="63"/>
-      <c r="C51" s="217"/>
-      <c r="D51" s="217"/>
-      <c r="E51" s="217"/>
-      <c r="F51" s="217"/>
-      <c r="G51" s="217"/>
-      <c r="H51" s="217"/>
-      <c r="I51" s="217"/>
       <c r="J51" s="64"/>
     </row>
     <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
